--- a/documents/digital/表结构说明/oms_brand_info.xlsx
+++ b/documents/digital/表结构说明/oms_brand_info.xlsx
@@ -1,49 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10335"/>
   </bookViews>
   <sheets>
-    <sheet name="oms_brand_info" sheetId="1" r:id="rId2"/>
+    <sheet name="oms_brand_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>brand_number</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>brand_py</t>
+  </si>
+  <si>
+    <t>is_del</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>PUBHB002</t>
+  </si>
+  <si>
+    <t>PUBHB006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>em1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>em2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PinYin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_pubhb_brand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>company_id</t>
-  </si>
-  <si>
-    <t>brand_number</t>
-  </si>
-  <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>brand_py</t>
-  </si>
-  <si>
-    <t>is_del</t>
-  </si>
-  <si>
-    <t>create_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,42 +163,374 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/digital/表结构说明/oms_brand_info.xlsx
+++ b/documents/digital/表结构说明/oms_brand_info.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\digital-data-syn\documents\digital\表结构说明\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccdashu/Work/local-project/digital-data-syn/documents/digital/表结构说明/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21600" windowHeight="10340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="oms_brand_info" sheetId="1" r:id="rId1"/>
+    <sheet name="相关sql" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>company_id</t>
   </si>
@@ -37,17 +43,6 @@
   </si>
   <si>
     <t>create_date</t>
-  </si>
-  <si>
-    <t>PUBHB002</t>
-  </si>
-  <si>
-    <t>PUBHB006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UUID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数字化</t>
@@ -61,7 +56,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>ms</t>
     </r>
@@ -75,7 +69,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>em1</t>
     </r>
@@ -89,38 +82,60 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>em2</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_pubhb_brand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBHB006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBHB002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PinYin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_pubhb_brand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brands</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>select 
+PUBHB_ID id_uuid,
+'' company_id,
+PUBHB006 company_id_uuid,
+UUID brand_number,
+PUBHB002 brand_name 
+-- brand_py
+from tb_pubhb_brand where rownum&lt;100;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -141,6 +156,10 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,10 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -227,12 +250,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -262,12 +285,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -449,29 +472,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -492,45 +515,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="91.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>